--- a/SPTO/基于android的移动端校园图书互助平台—项目进度图.xlsx
+++ b/SPTO/基于android的移动端校园图书互助平台—项目进度图.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -6677,7 +6676,70 @@
                   </a:solidFill>
                   <a:latin typeface="宋体"/>
                 </a:rPr>
-                <a:t>冯庄圣[30%]，贺立[20%],黄冠杰[20%],黄杰华[20],黄群辉[10%]</a:t>
+                <a:t>冯庄圣[30%]，贺立[20%],黄冠杰[20%],</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                </a:rPr>
+                <a:t>曾腾飞</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                </a:rPr>
+                <a:t>[10%]</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr sz="800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                </a:rPr>
+                <a:t>黄杰华[</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr sz="800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                </a:rPr>
+                <a:t>0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                </a:rPr>
+                <a:t>%</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr sz="800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                </a:rPr>
+                <a:t>],黄群辉[10%]</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -6709,7 +6771,52 @@
                   </a:solidFill>
                   <a:latin typeface="宋体"/>
                 </a:rPr>
-                <a:t>黄冠杰[10%]，黄群辉[10%]，贺立[30%]，冯庄圣[20%],黄杰华[30%]</a:t>
+                <a:t>黄冠杰[10%]，黄群辉[10%]，贺立[30%]，</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                </a:rPr>
+                <a:t>曾腾飞</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                </a:rPr>
+                <a:t>[10%]</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr sz="800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                </a:rPr>
+                <a:t>冯庄圣[20%],黄杰华[</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr sz="800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                </a:rPr>
+                <a:t>0%]</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -6773,7 +6880,52 @@
                   </a:solidFill>
                   <a:latin typeface="宋体"/>
                 </a:rPr>
-                <a:t>贺立[40%],黄群辉[20%]，黄杰华[30%],冯庄圣[10%]</a:t>
+                <a:t>贺立[</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                </a:rPr>
+                <a:t>3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr sz="800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                </a:rPr>
+                <a:t>0%],黄群辉[20%]，黄杰华[30%],</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                </a:rPr>
+                <a:t>曾腾飞</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                </a:rPr>
+                <a:t>[10%]</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr sz="800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                </a:rPr>
+                <a:t>冯庄圣[10%]</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -6965,7 +7117,52 @@
                   </a:solidFill>
                   <a:latin typeface="宋体"/>
                 </a:rPr>
-                <a:t>黄冠杰[30%]，黄群辉[20%],贺立[10%]，冯庄圣[30%],黄杰华[10%]</a:t>
+                <a:t>黄冠杰[30%]，黄群辉[20%],贺立[10%]，</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                </a:rPr>
+                <a:t>曾腾飞</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                </a:rPr>
+                <a:t>[10%]</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr sz="800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                </a:rPr>
+                <a:t>冯庄圣[</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                </a:rPr>
+                <a:t>20</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr sz="800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                </a:rPr>
+                <a:t>%],黄杰华[10%]</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -7221,7 +7418,52 @@
                   </a:solidFill>
                   <a:latin typeface="宋体"/>
                 </a:rPr>
-                <a:t>黄群辉[30%]，黄冠杰[50%]，黄杰华[20%]</a:t>
+                <a:t>黄群辉[30%]，黄冠杰[</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                </a:rPr>
+                <a:t>4</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr sz="800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                </a:rPr>
+                <a:t>0%]，</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                </a:rPr>
+                <a:t>曾腾飞</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                </a:rPr>
+                <a:t>[10%]</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr sz="800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                </a:rPr>
+                <a:t>黄杰华[20%]</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -56246,7 +56488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="AD3:AD96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AD12" sqref="AD12"/>
     </sheetView>
   </sheetViews>

--- a/SPTO/基于android的移动端校园图书互助平台—项目进度图.xlsx
+++ b/SPTO/基于android的移动端校园图书互助平台—项目进度图.xlsx
@@ -6792,6 +6792,21 @@
                 <a:t>[10%]</a:t>
               </a:r>
               <a:r>
+                <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="宋体"/>
+                </a:rPr>
+                <a:t>，</a:t>
+              </a:r>
+              <a:r>
                 <a:rPr sz="800">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
@@ -6919,6 +6934,21 @@
                 <a:t>[10%]</a:t>
               </a:r>
               <a:r>
+                <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="宋体"/>
+                </a:rPr>
+                <a:t>，</a:t>
+              </a:r>
+              <a:r>
                 <a:rPr sz="800">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
@@ -7055,6 +7085,21 @@
                 </a:rPr>
                 <a:t>贺立[10%],黄冠杰[50%]，冯庄圣[40%</a:t>
               </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                </a:rPr>
+                <a:t>]</a:t>
+              </a:r>
+              <a:endParaRPr sz="800">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="宋体"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -7136,6 +7181,21 @@
                   <a:latin typeface="宋体"/>
                 </a:rPr>
                 <a:t>[10%]</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="宋体"/>
+                </a:rPr>
+                <a:t>，</a:t>
               </a:r>
               <a:r>
                 <a:rPr sz="800">
@@ -7545,6 +7605,21 @@
                 </a:rPr>
                 <a:t>冯庄圣[30%],贺立[20%],黄杰华[50%</a:t>
               </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                </a:rPr>
+                <a:t>]</a:t>
+              </a:r>
+              <a:endParaRPr sz="800">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="宋体"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -7641,6 +7716,21 @@
                 </a:rPr>
                 <a:t>冯庄圣[50%],贺立[30%],黄冠杰[20%</a:t>
               </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                </a:rPr>
+                <a:t>]</a:t>
+              </a:r>
+              <a:endParaRPr sz="800">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="宋体"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -7911,7 +8001,25 @@
                   </a:solidFill>
                   <a:latin typeface="宋体"/>
                 </a:rPr>
-                <a:t>黄冠杰[15%]，黄群辉[10%]，方旭楷[15%]，贺立[20%]，冯庄圣[20%],黄杰华[20%]</a:t>
+                <a:t>黄冠杰[15%]，黄群辉[10%]，</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                </a:rPr>
+                <a:t>曾腾飞</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr sz="800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                </a:rPr>
+                <a:t>[15%]，贺立[20%]，冯庄圣[20%],黄杰华[20%]</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -7943,7 +8051,25 @@
                   </a:solidFill>
                   <a:latin typeface="宋体"/>
                 </a:rPr>
-                <a:t>黄冠杰[15%]，黄群辉[10%]，方旭楷[15%]，贺立[20%]，冯庄圣[20%],黄杰华[20%]</a:t>
+                <a:t>黄冠杰[15%]，黄群辉[10%]，</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                </a:rPr>
+                <a:t>曾腾飞</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr sz="800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                </a:rPr>
+                <a:t>[15%]，贺立[20%]，冯庄圣[20%],黄杰华[20%]</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -7975,7 +8101,25 @@
                   </a:solidFill>
                   <a:latin typeface="宋体"/>
                 </a:rPr>
-                <a:t>黄冠杰[15%]，黄群辉[10%]，方旭楷[15%]，贺立[20%]，冯庄圣[20%],黄杰华[20%]</a:t>
+                <a:t>黄冠杰[15%]，黄群辉[10%]，</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                </a:rPr>
+                <a:t>曾腾飞</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr sz="800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                </a:rPr>
+                <a:t>[15%]，贺立[20%]，冯庄圣[20%],黄杰华[20%]</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -8007,7 +8151,25 @@
                   </a:solidFill>
                   <a:latin typeface="宋体"/>
                 </a:rPr>
-                <a:t>黄冠杰[15%]，黄群辉[10%]，方旭楷[15%]，贺立[20%]，冯庄圣[20%],黄杰华[20%]</a:t>
+                <a:t>黄冠杰[15%]，黄群辉[10%]，</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                </a:rPr>
+                <a:t>曾腾飞</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr sz="800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                </a:rPr>
+                <a:t>[15%]，贺立[20%]，冯庄圣[20%],黄杰华[20%]</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -8039,7 +8201,25 @@
                   </a:solidFill>
                   <a:latin typeface="宋体"/>
                 </a:rPr>
-                <a:t>黄冠杰[15%]，黄群辉[10%]，方旭楷[15%]，贺立[20%]，冯庄圣[20%],黄杰华[20%]</a:t>
+                <a:t>黄冠杰[15%]，黄群辉[10%]，</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                </a:rPr>
+                <a:t>曾腾飞</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr sz="800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                </a:rPr>
+                <a:t>[15%]，贺立[20%]，冯庄圣[20%],黄杰华[20%]</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -8071,7 +8251,25 @@
                   </a:solidFill>
                   <a:latin typeface="宋体"/>
                 </a:rPr>
-                <a:t>黄冠杰[15%]，黄群辉[10%]，方旭楷[15%]，贺立[20%]，冯庄圣[20%],黄杰华[20%]</a:t>
+                <a:t>黄冠杰[15%]，黄群辉[10%]，</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                </a:rPr>
+                <a:t>曾腾飞</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr sz="800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                </a:rPr>
+                <a:t>[15%]，贺立[20%]，冯庄圣[20%],黄杰华[20%]</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -8103,7 +8301,25 @@
                   </a:solidFill>
                   <a:latin typeface="宋体"/>
                 </a:rPr>
-                <a:t>黄冠杰[15%]，黄群辉[10%]，方旭楷[15%]，贺立[20%]，冯庄圣[20%],黄杰华[20%]</a:t>
+                <a:t>黄冠杰[15%]，黄群辉[10%]，</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                </a:rPr>
+                <a:t>曾腾飞</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr sz="800">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                </a:rPr>
+                <a:t>[15%]，贺立[20%]，冯庄圣[20%],黄杰华[20%]</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -56488,8 +56704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="AD3:AD96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD12" sqref="AD12"/>
+    <sheetView tabSelected="1" topLeftCell="N64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y98" sqref="Y98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
